--- a/data/ReviewNotification.xlsx
+++ b/data/ReviewNotification.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sajith\git\DACAutomation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6840636E-B164-43DE-85CB-8A3F7C6A12D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC8E48D8-A6ED-45CC-915B-CCC08330C45D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="35">
   <si>
     <t>NotificationName</t>
   </si>
@@ -127,6 +127,9 @@
   </si>
   <si>
     <t>These are all ratings/reviews below 3 stars reported on a daily basis.</t>
+  </si>
+  <si>
+    <t>chappel.mann+stl2@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -185,7 +188,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -193,6 +196,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -477,7 +481,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -527,8 +531,8 @@
       <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
+      <c r="C2" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>8</v>
@@ -696,12 +700,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{9069174E-C064-4E85-8719-5B7CC01A4D9E}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{29B05F47-FE59-4858-8B62-436A8FA94ADF}"/>
-    <hyperlink ref="C6" r:id="rId3" xr:uid="{ACA3142B-23E3-47CD-86C1-1366514AC2D1}"/>
-    <hyperlink ref="C7" r:id="rId4" xr:uid="{65D3766D-7A47-46CC-9655-E7AA1B881E7F}"/>
-    <hyperlink ref="C4" r:id="rId5" xr:uid="{CD21BAC8-18A8-41F5-B774-1A1B13FF0CC7}"/>
-    <hyperlink ref="C5" r:id="rId6" xr:uid="{67E96B83-FA28-4155-BBA9-2F217DD98D53}"/>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{29B05F47-FE59-4858-8B62-436A8FA94ADF}"/>
+    <hyperlink ref="C6" r:id="rId2" xr:uid="{ACA3142B-23E3-47CD-86C1-1366514AC2D1}"/>
+    <hyperlink ref="C7" r:id="rId3" xr:uid="{65D3766D-7A47-46CC-9655-E7AA1B881E7F}"/>
+    <hyperlink ref="C4" r:id="rId4" xr:uid="{CD21BAC8-18A8-41F5-B774-1A1B13FF0CC7}"/>
+    <hyperlink ref="C5" r:id="rId5" xr:uid="{67E96B83-FA28-4155-BBA9-2F217DD98D53}"/>
+    <hyperlink ref="C2" r:id="rId6" xr:uid="{EAA4513A-5BD8-467A-9A33-AAB60632196C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId7"/>

--- a/data/ReviewNotification.xlsx
+++ b/data/ReviewNotification.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sajith\git\DACAutomation\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\DACAutomation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC8E48D8-A6ED-45CC-915B-CCC08330C45D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AF48EF7-AF6F-44DC-A366-01878E93231D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -129,7 +129,7 @@
     <t>These are all ratings/reviews below 3 stars reported on a daily basis.</t>
   </si>
   <si>
-    <t>chappel.mann+stl2@gmail.com</t>
+    <t>chappel.mann+stc@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -705,9 +705,8 @@
     <hyperlink ref="C7" r:id="rId3" xr:uid="{65D3766D-7A47-46CC-9655-E7AA1B881E7F}"/>
     <hyperlink ref="C4" r:id="rId4" xr:uid="{CD21BAC8-18A8-41F5-B774-1A1B13FF0CC7}"/>
     <hyperlink ref="C5" r:id="rId5" xr:uid="{67E96B83-FA28-4155-BBA9-2F217DD98D53}"/>
-    <hyperlink ref="C2" r:id="rId6" xr:uid="{EAA4513A-5BD8-467A-9A33-AAB60632196C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId6"/>
 </worksheet>
 </file>